--- a/src/coding/coding.xlsx
+++ b/src/coding/coding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\projects\Algorithms\src\coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A87F69-630C-4348-B40D-78DCF75FF7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F23DE4D-3B31-4A2C-869B-AF249C0C7F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6700" yWindow="2310" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithms" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>_0339_Nested_List_Weight_Sum</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>_0733_Flood_Fill</t>
+  </si>
+  <si>
+    <t>注意判断 newColor != oldColor</t>
+  </si>
+  <si>
+    <t>_0100_Same_Tree</t>
+  </si>
+  <si>
+    <t>_0257_Binary_Tree_Paths</t>
+  </si>
+  <si>
+    <t>_0101_Symmetric_Tree</t>
+  </si>
+  <si>
+    <t>_0110_Balanced_Binary_Tree</t>
+  </si>
+  <si>
+    <t>_0112_Path_Sum</t>
+  </si>
+  <si>
+    <t>_0111_Minimum_Depth_of_Binary_Tree</t>
   </si>
 </sst>
 </file>
@@ -344,18 +365,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,66 +419,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,7 +782,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -775,13 +793,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
@@ -796,310 +814,428 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="23" width="8.6328125" style="8" customWidth="1"/>
-    <col min="24" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="23" width="8.6328125" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="7"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="10" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="10" t="s">
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="18" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="5">
         <v>43917</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="5">
         <v>43917</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="24">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="9">
         <v>43918</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="8" t="s">
+      <c r="O6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="26"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="9">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="8" t="s">
+      <c r="O7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="5">
         <v>43918</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="5">
         <v>43918</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="8" t="s">
+      <c r="O9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="21">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="5">
         <v>43918</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="8" t="s">
+      <c r="N10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="5">
         <v>43918</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="8" t="s">
+      <c r="O11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5">
+        <v>43919</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5">
+        <v>43919</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5">
+        <v>43919</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="5">
+        <v>43919</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5">
+        <v>43919</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5">
+        <v>43919</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="F1:W1"/>
     <mergeCell ref="B1:B3"/>
@@ -1113,13 +1249,7 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="P2:P3"/>
     <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="E1 E4:E1048576">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
